--- a/inst/extdata/toyFiles/FROC/frocOld.xlsx
+++ b/inst/extdata/toyFiles/FROC/frocOld.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11208"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Dev/GitHub/RJafroc/inst/extdata/toyFiles/FROC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A88348D-6C8E-2443-8308-F6CFE5CBB3B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D7B32AA-5D93-854B-A79D-1F773F2358A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6180" yWindow="2360" windowWidth="10000" windowHeight="10180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14680" yWindow="2660" windowWidth="10000" windowHeight="10180" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TP" sheetId="3" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="10">
   <si>
     <t>CaseID</t>
   </si>
@@ -560,15 +560,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:M32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="8" width="8.83203125" style="1"/>
+    <col min="1" max="5" width="8.83203125" style="1"/>
+    <col min="8" max="8" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
@@ -589,15 +590,15 @@
       </c>
       <c r="M1">
         <f ca="1">RAND()-0.5</f>
-        <v>-3.2434335895118127E-2</v>
+        <v>0.45847747823206131</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="3">
-        <v>0</v>
+      <c r="B2" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="C2" s="1">
         <v>70</v>
@@ -608,264 +609,736 @@
       <c r="E2" s="1">
         <v>5.28</v>
       </c>
+      <c r="G2">
+        <f t="shared" ref="G2:G32" ca="1" si="0">ROUND(0.5*(RAND()-0.5)+E2, 2)</f>
+        <v>5.0999999999999996</v>
+      </c>
       <c r="J2">
-        <f t="shared" ref="J2:J5" ca="1" si="0">ROUND(0.5*(RAND()-0.5)+E2, 2)</f>
-        <v>5.43</v>
+        <f t="shared" ref="J2:J5" ca="1" si="1">ROUND(0.5*(RAND()-0.5)+E2, 2)</f>
+        <v>5.39</v>
       </c>
       <c r="M2">
-        <f t="shared" ref="M2:M13" ca="1" si="1">RAND()-0.5</f>
-        <v>6.5041220601817162E-2</v>
+        <f t="shared" ref="M2:M13" ca="1" si="2">RAND()-0.5</f>
+        <v>-0.16867279739703056</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="3">
-        <v>0</v>
+      <c r="B3" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="C3" s="1">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D3" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E3" s="1">
-        <v>3.01</v>
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ca="1" si="0"/>
+        <v>4.6399999999999997</v>
       </c>
       <c r="J3">
-        <f t="shared" ca="1" si="0"/>
-        <v>3.09</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>4.4800000000000004</v>
       </c>
       <c r="M3">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.15475087532133203</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0.49086451604703474</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="3">
-        <v>0</v>
+      <c r="B4" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="C4" s="1">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D4" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E4" s="1">
-        <v>5.25</v>
+        <v>3.01</v>
+      </c>
+      <c r="G4">
+        <f t="shared" ca="1" si="0"/>
+        <v>3.11</v>
       </c>
       <c r="J4">
-        <f t="shared" ca="1" si="0"/>
-        <v>5.04</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>3.1</v>
       </c>
       <c r="M4">
-        <f t="shared" ca="1" si="1"/>
-        <v>1.928728991156714E-2</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0.30063379079179919</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="1">
-        <v>1</v>
+      <c r="B5" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="C5" s="1">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
       </c>
       <c r="E5" s="1">
-        <v>4.26</v>
+        <v>5.98</v>
+      </c>
+      <c r="G5">
+        <f t="shared" ca="1" si="0"/>
+        <v>6.03</v>
       </c>
       <c r="J5">
-        <f t="shared" ca="1" si="0"/>
-        <v>4.37</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>5.92</v>
       </c>
       <c r="M5">
-        <f t="shared" ca="1" si="1"/>
-        <v>-0.23203177959417465</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0.32053808256479865</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="1">
-        <v>1</v>
+        <v>6</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="C6" s="1">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D6" s="1">
         <v>1</v>
       </c>
       <c r="E6" s="1">
-        <v>4.92</v>
+        <v>5</v>
+      </c>
+      <c r="G6">
+        <f t="shared" ca="1" si="0"/>
+        <v>4.8899999999999997</v>
       </c>
       <c r="J6">
-        <f t="shared" ref="J6:J11" ca="1" si="2">ROUND(0.5*(RAND()-0.5)+E6, 2)</f>
-        <v>4.99</v>
+        <f t="shared" ref="J6:J11" ca="1" si="3">ROUND(0.5*(RAND()-0.5)+E6, 2)</f>
+        <v>5.04</v>
       </c>
       <c r="M6">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.16017147290775591</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>7.2521322964131607E-2</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="3">
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="C7" s="1">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D7" s="1">
         <v>2</v>
       </c>
       <c r="E7" s="1">
-        <v>5.1100000000000003</v>
+        <v>5.25</v>
+      </c>
+      <c r="G7">
+        <f t="shared" ca="1" si="0"/>
+        <v>5.13</v>
       </c>
       <c r="J7">
+        <f t="shared" ca="1" si="3"/>
+        <v>5.25</v>
+      </c>
+      <c r="M7">
         <f t="shared" ca="1" si="2"/>
-        <v>4.95</v>
-      </c>
-      <c r="M7">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.18471881051180805</v>
+        <v>0.46139464982550571</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1">
-        <v>1</v>
+        <v>6</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="C8" s="1">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D8" s="1">
         <v>1</v>
       </c>
       <c r="E8" s="1">
-        <v>4.95</v>
+        <v>4.26</v>
+      </c>
+      <c r="G8">
+        <f t="shared" ca="1" si="0"/>
+        <v>4.1100000000000003</v>
       </c>
       <c r="J8">
+        <f t="shared" ca="1" si="3"/>
+        <v>4.37</v>
+      </c>
+      <c r="M8">
         <f t="shared" ca="1" si="2"/>
-        <v>4.99</v>
-      </c>
-      <c r="M8">
-        <f t="shared" ca="1" si="1"/>
-        <v>-0.19779144924264902</v>
+        <v>0.20869238809310298</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="3">
-        <v>0</v>
+      <c r="B9" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="C9" s="1">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D9" s="1">
         <v>1</v>
       </c>
       <c r="E9" s="1">
-        <v>5.3</v>
+        <v>5.14</v>
+      </c>
+      <c r="G9">
+        <f t="shared" ca="1" si="0"/>
+        <v>4.91</v>
       </c>
       <c r="J9">
+        <f t="shared" ca="1" si="3"/>
+        <v>5.26</v>
+      </c>
+      <c r="M9">
         <f t="shared" ca="1" si="2"/>
-        <v>5.42</v>
-      </c>
-      <c r="M9">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.22945723129030815</v>
+        <v>0.32184771571201876</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="1">
-        <v>1</v>
+        <v>7</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="C10" s="1">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D10" s="1">
         <v>1</v>
       </c>
       <c r="E10" s="1">
-        <v>4.66</v>
+        <v>3.31</v>
+      </c>
+      <c r="G10">
+        <f t="shared" ca="1" si="0"/>
+        <v>3.53</v>
       </c>
       <c r="J10">
+        <f t="shared" ca="1" si="3"/>
+        <v>3.13</v>
+      </c>
+      <c r="M10">
         <f t="shared" ca="1" si="2"/>
-        <v>4.6900000000000004</v>
-      </c>
-      <c r="M10">
-        <f t="shared" ca="1" si="1"/>
-        <v>-0.21078413854294342</v>
+        <v>0.20423238406033362</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="3">
-        <v>0</v>
+        <v>7</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="C11" s="1">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D11" s="1">
         <v>1</v>
       </c>
       <c r="E11" s="1">
-        <v>4.03</v>
+        <v>4.92</v>
+      </c>
+      <c r="G11">
+        <f t="shared" ca="1" si="0"/>
+        <v>4.82</v>
       </c>
       <c r="J11">
+        <f t="shared" ca="1" si="3"/>
+        <v>4.84</v>
+      </c>
+      <c r="M11">
         <f t="shared" ca="1" si="2"/>
-        <v>4.24</v>
-      </c>
-      <c r="M11">
-        <f t="shared" ca="1" si="1"/>
-        <v>-0.45121963816000776</v>
+        <v>-0.20888618096102107</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="1">
+        <v>72</v>
+      </c>
+      <c r="D12" s="1">
+        <v>2</v>
+      </c>
+      <c r="E12" s="1">
+        <v>5.1100000000000003</v>
+      </c>
+      <c r="G12">
+        <f t="shared" ca="1" si="0"/>
+        <v>5.07</v>
+      </c>
       <c r="M12">
-        <f t="shared" ca="1" si="1"/>
-        <v>9.4471355693585557E-2</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>-0.33311349467633855</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="1">
+        <v>72</v>
+      </c>
+      <c r="D13" s="1">
+        <v>3</v>
+      </c>
+      <c r="E13" s="1">
+        <v>4.63</v>
+      </c>
+      <c r="G13">
+        <f t="shared" ca="1" si="0"/>
+        <v>4.6900000000000004</v>
+      </c>
       <c r="M13">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.14640674023004274</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>-0.1445962059860344</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="1">
+        <v>73</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1</v>
+      </c>
+      <c r="E14" s="1">
+        <v>4.95</v>
+      </c>
+      <c r="G14">
+        <f t="shared" ca="1" si="0"/>
+        <v>5.07</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="1">
+        <v>74</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1</v>
+      </c>
+      <c r="E15" s="1">
+        <v>5.3</v>
+      </c>
+      <c r="G15">
+        <f t="shared" ca="1" si="0"/>
+        <v>5.12</v>
+      </c>
       <c r="M15">
         <f ca="1">AVERAGE(M1:M13)</f>
-        <v>-5.3812573051289416E-3</v>
+        <v>0.15261028071310478</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="1">
+        <v>70</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1</v>
+      </c>
+      <c r="E16" s="1">
+        <v>4.66</v>
+      </c>
+      <c r="G16">
+        <f t="shared" ca="1" si="0"/>
+        <v>4.84</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="1">
+        <v>71</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1</v>
+      </c>
+      <c r="E17" s="1">
+        <v>4.03</v>
+      </c>
+      <c r="G17">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="1">
+        <v>72</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1</v>
+      </c>
+      <c r="E18" s="1">
+        <v>5.22</v>
+      </c>
+      <c r="G18">
+        <f t="shared" ca="1" si="0"/>
+        <v>5.0199999999999996</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="1">
+        <v>73</v>
+      </c>
+      <c r="D19" s="1">
+        <v>1</v>
+      </c>
+      <c r="E19" s="1">
+        <v>4.9400000000000004</v>
+      </c>
+      <c r="G19">
+        <f t="shared" ca="1" si="0"/>
+        <v>4.8600000000000003</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="1">
+        <v>74</v>
+      </c>
+      <c r="D20" s="1">
+        <v>1</v>
+      </c>
+      <c r="E20" s="1">
+        <v>5.27</v>
+      </c>
+      <c r="G20">
+        <f t="shared" ca="1" si="0"/>
+        <v>5.24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="1">
+        <v>70</v>
+      </c>
+      <c r="D21" s="1">
+        <v>1</v>
+      </c>
+      <c r="E21" s="1">
+        <v>5.2</v>
+      </c>
+      <c r="G21">
+        <f t="shared" ca="1" si="0"/>
+        <v>5.44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="1">
+        <v>71</v>
+      </c>
+      <c r="D22" s="1">
+        <v>1</v>
+      </c>
+      <c r="E22" s="1">
+        <v>3.27</v>
+      </c>
+      <c r="G22">
+        <f t="shared" ca="1" si="0"/>
+        <v>3.28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="1">
+        <v>72</v>
+      </c>
+      <c r="D23" s="1">
+        <v>1</v>
+      </c>
+      <c r="E23" s="1">
+        <v>4.6100000000000003</v>
+      </c>
+      <c r="G23">
+        <f t="shared" ca="1" si="0"/>
+        <v>4.42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="1">
+        <v>73</v>
+      </c>
+      <c r="D24" s="1">
+        <v>1</v>
+      </c>
+      <c r="E24" s="1">
+        <v>5.18</v>
+      </c>
+      <c r="G24">
+        <f t="shared" ca="1" si="0"/>
+        <v>5.19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="1">
+        <v>74</v>
+      </c>
+      <c r="D25" s="1">
+        <v>1</v>
+      </c>
+      <c r="E25" s="1">
+        <v>4.72</v>
+      </c>
+      <c r="G25">
+        <f t="shared" ca="1" si="0"/>
+        <v>4.58</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="1">
+        <v>70</v>
+      </c>
+      <c r="D26" s="1">
+        <v>1</v>
+      </c>
+      <c r="E26" s="1">
+        <v>4.7699999999999996</v>
+      </c>
+      <c r="G26">
+        <f t="shared" ca="1" si="0"/>
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="1">
+        <v>71</v>
+      </c>
+      <c r="D27" s="1">
+        <v>1</v>
+      </c>
+      <c r="E27" s="1">
+        <v>3.19</v>
+      </c>
+      <c r="G27">
+        <f t="shared" ca="1" si="0"/>
+        <v>3.04</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" s="1">
+        <v>72</v>
+      </c>
+      <c r="D28" s="1">
+        <v>1</v>
+      </c>
+      <c r="E28" s="1">
+        <v>5.2</v>
+      </c>
+      <c r="G28">
+        <f t="shared" ca="1" si="0"/>
+        <v>4.95</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" s="1">
+        <v>73</v>
+      </c>
+      <c r="D29" s="1">
+        <v>1</v>
+      </c>
+      <c r="E29" s="1">
+        <v>5.39</v>
+      </c>
+      <c r="G29">
+        <f t="shared" ca="1" si="0"/>
+        <v>5.26</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" s="1">
+        <v>74</v>
+      </c>
+      <c r="D30" s="1">
+        <v>1</v>
+      </c>
+      <c r="E30" s="1">
+        <v>5.01</v>
+      </c>
+      <c r="G30">
+        <f t="shared" ca="1" si="0"/>
+        <v>5.13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" s="1">
+        <v>70</v>
+      </c>
+      <c r="D31" s="1">
+        <v>1</v>
+      </c>
+      <c r="E31" s="1">
+        <v>4.87</v>
+      </c>
+      <c r="G31">
+        <f t="shared" ca="1" si="0"/>
+        <v>4.87</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" s="1">
+        <v>71</v>
+      </c>
+      <c r="D32" s="1">
+        <v>1</v>
+      </c>
+      <c r="E32" s="1">
+        <v>1.94</v>
+      </c>
+      <c r="G32">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.06</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <ignoredErrors>
-    <ignoredError sqref="A4:A5 A2 A3 A6:A7 A8:A11" numberStoredAsText="1"/>
-  </ignoredErrors>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -876,15 +1349,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:C8"/>
+      <selection sqref="A1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="8" width="8.83203125" style="1"/>
+    <col min="1" max="4" width="8.83203125" style="1"/>
+    <col min="7" max="8" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
@@ -912,11 +1386,15 @@
         <v>1</v>
       </c>
       <c r="D2" s="1">
-        <v>2.17</v>
+        <v>1.02</v>
+      </c>
+      <c r="F2">
+        <f ca="1">ROUND(0.5*(RAND()-0.5)+D2, 2)</f>
+        <v>0.83</v>
       </c>
       <c r="J2">
         <f t="shared" ref="J2:J11" ca="1" si="0">ROUND(0.5*(RAND()-0.5)+D2, 2)</f>
-        <v>1.97</v>
+        <v>1.0900000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -927,50 +1405,62 @@
         <v>6</v>
       </c>
       <c r="C3" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" s="1">
-        <v>2.2200000000000002</v>
+        <v>2.17</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F23" ca="1" si="1">ROUND(0.5*(RAND()-0.5)+D3, 2)</f>
+        <v>1.97</v>
       </c>
       <c r="J3">
         <f t="shared" ca="1" si="0"/>
-        <v>2.06</v>
+        <v>1.96</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4" s="1">
-        <v>2.21</v>
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="F4">
+        <f t="shared" ca="1" si="1"/>
+        <v>2.17</v>
       </c>
       <c r="J4">
         <f t="shared" ca="1" si="0"/>
-        <v>2.42</v>
+        <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D5" s="1">
-        <v>1.96</v>
+        <v>1.9</v>
+      </c>
+      <c r="F5">
+        <f t="shared" ca="1" si="1"/>
+        <v>1.94</v>
       </c>
       <c r="J5">
         <f t="shared" ca="1" si="0"/>
-        <v>2.0499999999999998</v>
+        <v>1.88</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -978,111 +1468,348 @@
         <v>7</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D6" s="1">
-        <v>2.08</v>
+        <v>2.21</v>
+      </c>
+      <c r="F6">
+        <f t="shared" ca="1" si="1"/>
+        <v>2.31</v>
       </c>
       <c r="J6">
         <f t="shared" ca="1" si="0"/>
-        <v>1.89</v>
+        <v>2.12</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7" s="1">
-        <v>2.2400000000000002</v>
+        <v>3.1</v>
+      </c>
+      <c r="F7">
+        <f t="shared" ca="1" si="1"/>
+        <v>3.26</v>
       </c>
       <c r="J7">
         <f t="shared" ca="1" si="0"/>
-        <v>2.44</v>
+        <v>3.27</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="3">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="1">
         <v>2</v>
       </c>
-      <c r="B8" s="3">
-        <v>1</v>
-      </c>
-      <c r="C8" s="1">
-        <v>1</v>
-      </c>
       <c r="D8" s="1">
-        <v>1.78</v>
+        <v>2.21</v>
+      </c>
+      <c r="F8">
+        <f t="shared" ca="1" si="1"/>
+        <v>2.31</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="1">
+        <v>3</v>
+      </c>
+      <c r="D9" s="1">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="F9">
+        <f t="shared" ca="1" si="1"/>
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="J9">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="1">
+      <c r="B10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1">
+        <v>2.14</v>
+      </c>
+      <c r="F10">
+        <f t="shared" ca="1" si="1"/>
+        <v>2.1</v>
+      </c>
+      <c r="J10">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.0699999999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="1">
         <v>2</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D11" s="1">
+        <v>1.98</v>
+      </c>
+      <c r="F11">
+        <f t="shared" ca="1" si="1"/>
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="J11">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="1">
+        <v>3</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1.95</v>
+      </c>
+      <c r="F12">
+        <f t="shared" ca="1" si="1"/>
+        <v>1.94</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1</v>
+      </c>
+      <c r="D13" s="1">
+        <v>2.89</v>
+      </c>
+      <c r="F13">
+        <f t="shared" ca="1" si="1"/>
+        <v>2.86</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="1">
+        <v>2</v>
+      </c>
+      <c r="D14" s="1">
+        <v>2.89</v>
+      </c>
+      <c r="F14">
+        <f t="shared" ca="1" si="1"/>
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="1">
+        <v>3</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0.84</v>
+      </c>
+      <c r="F15">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="1">
+        <v>3</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1.85</v>
+      </c>
+      <c r="F16">
+        <f t="shared" ca="1" si="1"/>
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="1">
+        <v>3</v>
+      </c>
+      <c r="D17" s="1">
+        <v>3.22</v>
+      </c>
+      <c r="F17">
+        <f t="shared" ca="1" si="1"/>
+        <v>3.29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1</v>
+      </c>
+      <c r="D18" s="1">
+        <v>3.01</v>
+      </c>
+      <c r="F18">
+        <f t="shared" ca="1" si="1"/>
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="1">
+        <v>2</v>
+      </c>
+      <c r="D19" s="1">
+        <v>1.96</v>
+      </c>
+      <c r="F19">
+        <f t="shared" ca="1" si="1"/>
+        <v>1.99</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="1">
+        <v>3</v>
+      </c>
+      <c r="D20" s="1">
+        <v>2.08</v>
+      </c>
+      <c r="F20">
+        <f t="shared" ca="1" si="1"/>
+        <v>2.31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="1">
+        <v>1</v>
+      </c>
+      <c r="D21" s="1">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="F21">
+        <f t="shared" ca="1" si="1"/>
+        <v>2.21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="1">
+        <v>2</v>
+      </c>
+      <c r="D22" s="1">
         <v>4.01</v>
       </c>
-      <c r="J9">
-        <f t="shared" ca="1" si="0"/>
-        <v>4.22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
-        <v>1</v>
-      </c>
-      <c r="B10" s="1">
-        <v>1</v>
-      </c>
-      <c r="C10" s="1">
-        <v>70</v>
-      </c>
-      <c r="D10" s="1">
-        <v>3.18</v>
-      </c>
-      <c r="J10">
-        <f t="shared" ca="1" si="0"/>
-        <v>3.4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
-        <v>2</v>
-      </c>
-      <c r="B11" s="1">
-        <v>0</v>
-      </c>
-      <c r="C11" s="1">
-        <v>74</v>
-      </c>
-      <c r="D11" s="1">
-        <v>1.9</v>
-      </c>
-      <c r="J11">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.79</v>
+      <c r="F22">
+        <f t="shared" ca="1" si="1"/>
+        <v>3.82</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="1">
+        <v>3</v>
+      </c>
+      <c r="D23" s="1">
+        <v>1.86</v>
+      </c>
+      <c r="F23">
+        <f t="shared" ca="1" si="1"/>
+        <v>2.09</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <ignoredErrors>
-    <ignoredError sqref="A9:B9 A2:B7" numberStoredAsText="1"/>
-  </ignoredErrors>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -1095,7 +1822,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D1" sqref="D1:F1048576"/>
     </sheetView>
   </sheetViews>

--- a/inst/extdata/toyFiles/FROC/frocOld.xlsx
+++ b/inst/extdata/toyFiles/FROC/frocOld.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Dev/GitHub/RJafroc/inst/extdata/toyFiles/FROC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D7B32AA-5D93-854B-A79D-1F773F2358A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{946C8E4A-0655-FF40-8929-9D37349A3B67}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14680" yWindow="2660" windowWidth="10000" windowHeight="10180" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14680" yWindow="2660" windowWidth="10000" windowHeight="10180" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TP" sheetId="3" r:id="rId1"/>
@@ -590,7 +590,7 @@
       </c>
       <c r="M1">
         <f ca="1">RAND()-0.5</f>
-        <v>0.45847747823206131</v>
+        <v>-0.15738575368717245</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
@@ -611,15 +611,15 @@
       </c>
       <c r="G2">
         <f t="shared" ref="G2:G32" ca="1" si="0">ROUND(0.5*(RAND()-0.5)+E2, 2)</f>
-        <v>5.0999999999999996</v>
+        <v>5.22</v>
       </c>
       <c r="J2">
         <f t="shared" ref="J2:J5" ca="1" si="1">ROUND(0.5*(RAND()-0.5)+E2, 2)</f>
-        <v>5.39</v>
+        <v>5.51</v>
       </c>
       <c r="M2">
         <f t="shared" ref="M2:M13" ca="1" si="2">RAND()-0.5</f>
-        <v>-0.16867279739703056</v>
+        <v>-0.33626158393443828</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
@@ -640,15 +640,15 @@
       </c>
       <c r="G3">
         <f t="shared" ca="1" si="0"/>
-        <v>4.6399999999999997</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="J3">
         <f t="shared" ca="1" si="1"/>
-        <v>4.4800000000000004</v>
+        <v>4.45</v>
       </c>
       <c r="M3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.49086451604703474</v>
+        <v>8.2081881524166289E-2</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
@@ -669,15 +669,15 @@
       </c>
       <c r="G4">
         <f t="shared" ca="1" si="0"/>
-        <v>3.11</v>
+        <v>2.94</v>
       </c>
       <c r="J4">
         <f t="shared" ca="1" si="1"/>
-        <v>3.1</v>
+        <v>3.03</v>
       </c>
       <c r="M4">
         <f t="shared" ca="1" si="2"/>
-        <v>0.30063379079179919</v>
+        <v>-0.15098681423329963</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
@@ -698,15 +698,15 @@
       </c>
       <c r="G5">
         <f t="shared" ca="1" si="0"/>
-        <v>6.03</v>
+        <v>5.97</v>
       </c>
       <c r="J5">
         <f t="shared" ca="1" si="1"/>
-        <v>5.92</v>
+        <v>6.1</v>
       </c>
       <c r="M5">
         <f t="shared" ca="1" si="2"/>
-        <v>0.32053808256479865</v>
+        <v>-6.0685644482740386E-2</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
@@ -727,7 +727,7 @@
       </c>
       <c r="G6">
         <f t="shared" ca="1" si="0"/>
-        <v>4.8899999999999997</v>
+        <v>5</v>
       </c>
       <c r="J6">
         <f t="shared" ref="J6:J11" ca="1" si="3">ROUND(0.5*(RAND()-0.5)+E6, 2)</f>
@@ -735,7 +735,7 @@
       </c>
       <c r="M6">
         <f t="shared" ca="1" si="2"/>
-        <v>7.2521322964131607E-2</v>
+        <v>0.27363230457564902</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
@@ -756,15 +756,15 @@
       </c>
       <c r="G7">
         <f t="shared" ca="1" si="0"/>
-        <v>5.13</v>
+        <v>5.3</v>
       </c>
       <c r="J7">
         <f t="shared" ca="1" si="3"/>
-        <v>5.25</v>
+        <v>5.47</v>
       </c>
       <c r="M7">
         <f t="shared" ca="1" si="2"/>
-        <v>0.46139464982550571</v>
+        <v>-0.44054897848082775</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
@@ -785,15 +785,15 @@
       </c>
       <c r="G8">
         <f t="shared" ca="1" si="0"/>
-        <v>4.1100000000000003</v>
+        <v>4.4400000000000004</v>
       </c>
       <c r="J8">
         <f t="shared" ca="1" si="3"/>
-        <v>4.37</v>
+        <v>4.46</v>
       </c>
       <c r="M8">
         <f t="shared" ca="1" si="2"/>
-        <v>0.20869238809310298</v>
+        <v>-0.48635884319960832</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
@@ -814,15 +814,15 @@
       </c>
       <c r="G9">
         <f t="shared" ca="1" si="0"/>
-        <v>4.91</v>
+        <v>4.92</v>
       </c>
       <c r="J9">
         <f t="shared" ca="1" si="3"/>
-        <v>5.26</v>
+        <v>5.0199999999999996</v>
       </c>
       <c r="M9">
         <f t="shared" ca="1" si="2"/>
-        <v>0.32184771571201876</v>
+        <v>-7.9058716840710863E-3</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
@@ -843,15 +843,15 @@
       </c>
       <c r="G10">
         <f t="shared" ca="1" si="0"/>
-        <v>3.53</v>
+        <v>3.21</v>
       </c>
       <c r="J10">
         <f t="shared" ca="1" si="3"/>
-        <v>3.13</v>
+        <v>3.27</v>
       </c>
       <c r="M10">
         <f t="shared" ca="1" si="2"/>
-        <v>0.20423238406033362</v>
+        <v>-0.24972628336682279</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
@@ -872,15 +872,15 @@
       </c>
       <c r="G11">
         <f t="shared" ca="1" si="0"/>
-        <v>4.82</v>
+        <v>4.68</v>
       </c>
       <c r="J11">
         <f t="shared" ca="1" si="3"/>
-        <v>4.84</v>
+        <v>5</v>
       </c>
       <c r="M11">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.20888618096102107</v>
+        <v>0.47657193006192122</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
@@ -901,11 +901,11 @@
       </c>
       <c r="G12">
         <f t="shared" ca="1" si="0"/>
-        <v>5.07</v>
+        <v>4.87</v>
       </c>
       <c r="M12">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.33311349467633855</v>
+        <v>-0.36384053697402763</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
@@ -926,11 +926,11 @@
       </c>
       <c r="G13">
         <f t="shared" ca="1" si="0"/>
-        <v>4.6900000000000004</v>
+        <v>4.6500000000000004</v>
       </c>
       <c r="M13">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.1445962059860344</v>
+        <v>0.18994273094684</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
@@ -951,7 +951,7 @@
       </c>
       <c r="G14">
         <f t="shared" ca="1" si="0"/>
-        <v>5.07</v>
+        <v>5.17</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
@@ -972,11 +972,11 @@
       </c>
       <c r="G15">
         <f t="shared" ca="1" si="0"/>
-        <v>5.12</v>
+        <v>5.34</v>
       </c>
       <c r="M15">
         <f ca="1">AVERAGE(M1:M13)</f>
-        <v>0.15261028071310478</v>
+        <v>-9.4728574071879373E-2</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
@@ -997,7 +997,7 @@
       </c>
       <c r="G16">
         <f t="shared" ca="1" si="0"/>
-        <v>4.84</v>
+        <v>4.8499999999999996</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
@@ -1018,7 +1018,7 @@
       </c>
       <c r="G17">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>4.17</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="G18">
         <f t="shared" ca="1" si="0"/>
-        <v>5.0199999999999996</v>
+        <v>5.33</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
@@ -1060,7 +1060,7 @@
       </c>
       <c r="G19">
         <f t="shared" ca="1" si="0"/>
-        <v>4.8600000000000003</v>
+        <v>4.79</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
@@ -1081,7 +1081,7 @@
       </c>
       <c r="G20">
         <f t="shared" ca="1" si="0"/>
-        <v>5.24</v>
+        <v>5.22</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
@@ -1102,7 +1102,7 @@
       </c>
       <c r="G21">
         <f t="shared" ca="1" si="0"/>
-        <v>5.44</v>
+        <v>5.1100000000000003</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
@@ -1123,7 +1123,7 @@
       </c>
       <c r="G22">
         <f t="shared" ca="1" si="0"/>
-        <v>3.28</v>
+        <v>3.34</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="G23">
         <f t="shared" ca="1" si="0"/>
-        <v>4.42</v>
+        <v>4.76</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
@@ -1165,7 +1165,7 @@
       </c>
       <c r="G24">
         <f t="shared" ca="1" si="0"/>
-        <v>5.19</v>
+        <v>5.01</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
@@ -1207,7 +1207,7 @@
       </c>
       <c r="G26">
         <f t="shared" ca="1" si="0"/>
-        <v>4.8</v>
+        <v>4.6900000000000004</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
@@ -1228,7 +1228,7 @@
       </c>
       <c r="G27">
         <f t="shared" ca="1" si="0"/>
-        <v>3.04</v>
+        <v>3.03</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
@@ -1249,7 +1249,7 @@
       </c>
       <c r="G28">
         <f t="shared" ca="1" si="0"/>
-        <v>4.95</v>
+        <v>4.99</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
@@ -1270,7 +1270,7 @@
       </c>
       <c r="G29">
         <f t="shared" ca="1" si="0"/>
-        <v>5.26</v>
+        <v>5.21</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
@@ -1291,7 +1291,7 @@
       </c>
       <c r="G30">
         <f t="shared" ca="1" si="0"/>
-        <v>5.13</v>
+        <v>4.99</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
@@ -1312,7 +1312,7 @@
       </c>
       <c r="G31">
         <f t="shared" ca="1" si="0"/>
-        <v>4.87</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
@@ -1333,7 +1333,7 @@
       </c>
       <c r="G32">
         <f t="shared" ca="1" si="0"/>
-        <v>2.06</v>
+        <v>1.75</v>
       </c>
     </row>
   </sheetData>
@@ -1351,8 +1351,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1390,11 +1390,11 @@
       </c>
       <c r="F2">
         <f ca="1">ROUND(0.5*(RAND()-0.5)+D2, 2)</f>
-        <v>0.83</v>
+        <v>0.95</v>
       </c>
       <c r="J2">
         <f t="shared" ref="J2:J11" ca="1" si="0">ROUND(0.5*(RAND()-0.5)+D2, 2)</f>
-        <v>1.0900000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -1412,11 +1412,11 @@
       </c>
       <c r="F3">
         <f t="shared" ref="F3:F23" ca="1" si="1">ROUND(0.5*(RAND()-0.5)+D3, 2)</f>
-        <v>1.97</v>
+        <v>2.36</v>
       </c>
       <c r="J3">
         <f t="shared" ca="1" si="0"/>
-        <v>1.96</v>
+        <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -1434,7 +1434,7 @@
       </c>
       <c r="F4">
         <f t="shared" ca="1" si="1"/>
-        <v>2.17</v>
+        <v>2.38</v>
       </c>
       <c r="J4">
         <f t="shared" ca="1" si="0"/>
@@ -1456,11 +1456,11 @@
       </c>
       <c r="F5">
         <f t="shared" ca="1" si="1"/>
-        <v>1.94</v>
+        <v>2.0699999999999998</v>
       </c>
       <c r="J5">
         <f t="shared" ca="1" si="0"/>
-        <v>1.88</v>
+        <v>2.0299999999999998</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -1478,11 +1478,11 @@
       </c>
       <c r="F6">
         <f t="shared" ca="1" si="1"/>
-        <v>2.31</v>
+        <v>2.09</v>
       </c>
       <c r="J6">
         <f t="shared" ca="1" si="0"/>
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -1500,11 +1500,11 @@
       </c>
       <c r="F7">
         <f t="shared" ca="1" si="1"/>
-        <v>3.26</v>
+        <v>3.07</v>
       </c>
       <c r="J7">
         <f t="shared" ca="1" si="0"/>
-        <v>3.27</v>
+        <v>3.31</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
@@ -1522,7 +1522,7 @@
       </c>
       <c r="F8">
         <f t="shared" ca="1" si="1"/>
-        <v>2.31</v>
+        <v>2.2799999999999998</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
@@ -1540,11 +1540,11 @@
       </c>
       <c r="F9">
         <f t="shared" ca="1" si="1"/>
-        <v>2.2999999999999998</v>
+        <v>2.04</v>
       </c>
       <c r="J9">
         <f t="shared" ca="1" si="0"/>
-        <v>2.19</v>
+        <v>2.17</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
@@ -1562,11 +1562,11 @@
       </c>
       <c r="F10">
         <f t="shared" ca="1" si="1"/>
-        <v>2.1</v>
+        <v>2.17</v>
       </c>
       <c r="J10">
         <f t="shared" ca="1" si="0"/>
-        <v>2.0699999999999998</v>
+        <v>2.2799999999999998</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
@@ -1584,11 +1584,11 @@
       </c>
       <c r="F11">
         <f t="shared" ca="1" si="1"/>
-        <v>2.2200000000000002</v>
+        <v>1.79</v>
       </c>
       <c r="J11">
         <f t="shared" ca="1" si="0"/>
-        <v>2.2000000000000002</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
@@ -1606,7 +1606,7 @@
       </c>
       <c r="F12">
         <f t="shared" ca="1" si="1"/>
-        <v>1.94</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="F13">
         <f t="shared" ca="1" si="1"/>
-        <v>2.86</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
@@ -1642,7 +1642,7 @@
       </c>
       <c r="F14">
         <f t="shared" ca="1" si="1"/>
-        <v>3.1</v>
+        <v>3.07</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
@@ -1653,14 +1653,14 @@
         <v>7</v>
       </c>
       <c r="C15" s="1">
-        <v>3</v>
+        <v>74</v>
       </c>
       <c r="D15" s="1">
         <v>0.84</v>
       </c>
       <c r="F15">
         <f t="shared" ca="1" si="1"/>
-        <v>0.76</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
@@ -1671,14 +1671,14 @@
         <v>7</v>
       </c>
       <c r="C16" s="1">
-        <v>3</v>
+        <v>73</v>
       </c>
       <c r="D16" s="1">
         <v>1.85</v>
       </c>
       <c r="F16">
         <f t="shared" ca="1" si="1"/>
-        <v>1.8</v>
+        <v>1.61</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -1696,7 +1696,7 @@
       </c>
       <c r="F17">
         <f t="shared" ca="1" si="1"/>
-        <v>3.29</v>
+        <v>3.07</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
@@ -1714,7 +1714,7 @@
       </c>
       <c r="F18">
         <f t="shared" ca="1" si="1"/>
-        <v>2.9</v>
+        <v>2.82</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
@@ -1732,7 +1732,7 @@
       </c>
       <c r="F19">
         <f t="shared" ca="1" si="1"/>
-        <v>1.99</v>
+        <v>2.09</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
@@ -1750,7 +1750,7 @@
       </c>
       <c r="F20">
         <f t="shared" ca="1" si="1"/>
-        <v>2.31</v>
+        <v>1.87</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
@@ -1761,7 +1761,7 @@
         <v>7</v>
       </c>
       <c r="C21" s="1">
-        <v>1</v>
+        <v>71</v>
       </c>
       <c r="D21" s="1">
         <v>2.2400000000000002</v>
@@ -1779,14 +1779,14 @@
         <v>7</v>
       </c>
       <c r="C22" s="1">
-        <v>2</v>
+        <v>71</v>
       </c>
       <c r="D22" s="1">
         <v>4.01</v>
       </c>
       <c r="F22">
         <f t="shared" ca="1" si="1"/>
-        <v>3.82</v>
+        <v>4.07</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
@@ -1797,14 +1797,14 @@
         <v>7</v>
       </c>
       <c r="C23" s="1">
-        <v>3</v>
+        <v>72</v>
       </c>
       <c r="D23" s="1">
         <v>1.86</v>
       </c>
       <c r="F23">
         <f t="shared" ca="1" si="1"/>
-        <v>2.09</v>
+        <v>1.97</v>
       </c>
     </row>
   </sheetData>
@@ -1822,7 +1822,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D1" sqref="D1:F1048576"/>
     </sheetView>
   </sheetViews>
